--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-1A-Gestão</t>
+          <t>['MEC-3B-Tec. Soldagem', -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>['MEC-3B-Tec. Soldagem', -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCT-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCT-1A-Gestão</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEC-2A-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEC-3A-Usinagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NA-Soldagem', 'MEC-2NA-Soldagem', 'MEC-2NA-Soldagem', 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gest. Int.</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gest. Int.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gest. Int.</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gest. Int.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Euclides-Tec. Soldagem-3B, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2NA-Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2NA-Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', 'MEC-2NA-Soldagem', 'MEC-2NA-Soldagem', 'MEC-2NA-Soldagem']</t>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gest. Int.</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Gest. Int.</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEC-2NB-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, Euclides-Tec. Soldagem-3B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>ELM-1NA-Gestão Integrada</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Euclides-Gestão integrada-2NB</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>MEC-2NB-Gestão integrada</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>MEC-2NB-Gestão integrada</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Gest. Int.</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Gest. Int.</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEC-2NB-Gestão integrada</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>MEC-2NB-Gestão integrada</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ELM-1NA-Gestão Integrada</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>MEC-2NB-Gestão integrada</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ELM-1NA-Gestão Integrada</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>MEC-2NA-Gest. Int.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['MCT-3A-Tecnologia da soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>-</t>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>['MEC-2NA-Soldagem', -, -, -]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>-</t>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEC-2NA-Gest. Int.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MEC-2NB-Gestão integrada</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>ELM-1NA-Gestão Integrada</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Gest. Int.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEC-2NA-Gest. Int.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MEC-2NB-Gestão integrada</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>ELM-1NA-Gestão Integrada</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Gest. Int.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Gestão integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEC-2NA-Gest. Int.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEC-2NB-Gestão integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/Euclides.xlsx
+++ b/data/teacher/Euclides.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MCT-3A-Tecnologia da soldagem', -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MCT-3A-Tecnologia da soldagem', -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-Tecnologia da soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Gest. Int.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Gestão integrada</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2NA-Soldagem']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
